--- a/fizyka-m9.xlsx
+++ b/fizyka-m9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\Studia\S3\FW\Laboratorium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\Fizyka-M9-sprawko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D7036F-E9B7-44CA-A371-7DD9A487F917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B40321-C8FE-4E09-9689-116CAC982278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC8E196D-20D8-45E2-BD06-79BFC7B08693}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Pomiar</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Delta ostatecznie</t>
+  </si>
+  <si>
+    <t>teoretyczne wartości IM</t>
+  </si>
+  <si>
+    <t>R1 [m]</t>
+  </si>
+  <si>
+    <t>R2 [m]</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0&quot; kg&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0&quot; m/s²&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -229,14 +238,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -264,8 +273,8 @@
       <xdr:rowOff>7326</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="783980" cy="432289"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="pole tekstowe 4">
@@ -532,7 +541,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="pole tekstowe 4">
@@ -922,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1F015-D7C1-4FE4-B87C-7366840559B7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,17 +949,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -998,15 +1007,15 @@
         <f>((C3+D3)*0.01)/2</f>
         <v>0.13399999999999998</v>
       </c>
-      <c r="G3" s="10">
-        <f>((C3*0.01*D3*0.01)/F3)*(E3*E3/(B3*B3))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G11" si="0">((C3*0.01*D3*0.01)/F3)*(E3*E3/(B3*B3))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.14608143516051236</v>
       </c>
-      <c r="H3" s="10">
-        <f>G3*(($Q$12/$Q$3)+((1/C3)+(1/D3)+(1/F3))*$Q$10+2*($Q$8/E3)+2*(-$Q$9/B3))</f>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H11" si="1">G3*(($Q$12/$Q$3)+((1/C3)+(1/D3)+(1/F3))*$Q$10+2*($Q$8/E3)+2*(-$Q$9/B3))</f>
         <v>1.0149078721784726E-2</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="4">
@@ -1030,15 +1039,15 @@
         <v>4.75</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F11" si="0">((C4+D4)*0.01)/2</f>
+        <f t="shared" ref="F4:F11" si="2">((C4+D4)*0.01)/2</f>
         <v>0.13550000000000001</v>
       </c>
-      <c r="G4" s="10">
-        <f>((C4*0.01*D4*0.01)/F4)*(E4*E4/(B4*B4))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>0.14209437764779695</v>
       </c>
-      <c r="H4" s="10">
-        <f>G4*(($Q$12/$Q$3)+((1/C4)+(1/D4)+(1/F4))*$Q$10+2*($Q$8/E4)+2*(-$Q$9/B4))</f>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
         <v>1.0045065650317604E-2</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1047,7 +1056,7 @@
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="5">
@@ -1071,26 +1080,26 @@
         <v>5.12</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>0.13550000000000001</v>
-      </c>
-      <c r="G5" s="10">
-        <f>((C5*0.01*D5*0.01)/F5)*(E5*E5/(B5*B5))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.16509335638384082</v>
       </c>
-      <c r="H5" s="10">
-        <f>G5*(($Q$12/$Q$3)+((1/C5)+(1/D5)+(1/F5))*$Q$10+2*($Q$8/E5)+2*(-$Q$9/B5))</f>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
         <v>1.0917420507644488E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f>AVERAGE(G3:G5)</f>
         <v>0.15108972306405002</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f>AVERAGE(H3:H5)</f>
         <v>1.0370521626582273E-2</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="4">
@@ -1114,15 +1123,15 @@
         <v>6.13</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21350000000000002</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21350000000000002</v>
-      </c>
-      <c r="G6" s="10">
-        <f>((C6*0.01*D6*0.01)/F6)*(E6*E6/(B6*B6))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.16674843131161951</v>
       </c>
-      <c r="H6" s="10">
-        <f>G6*(($Q$12/$Q$3)+((1/C6)+(1/D6)+(1/F6))*$Q$10+2*($Q$8/E6)+2*(-$Q$9/B6))</f>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
         <v>1.0069584687215031E-2</v>
       </c>
     </row>
@@ -1143,15 +1152,15 @@
         <v>6.18</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.214</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>0.214</v>
-      </c>
-      <c r="G7" s="10">
-        <f>((C7*0.01*D7*0.01)/F7)*(E7*E7/(B7*B7))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.17007835752384895</v>
       </c>
-      <c r="H7" s="10">
-        <f>G7*(($Q$12/$Q$3)+((1/C7)+(1/D7)+(1/F7))*$Q$10+2*($Q$8/E7)+2*(-$Q$9/B7))</f>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
         <v>1.0201409282305583E-2</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1163,7 +1172,7 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f>AVERAGE(I5,I8,I11)</f>
         <v>0.16824873743861213</v>
       </c>
@@ -1189,33 +1198,33 @@
         <v>6.4</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21350000000000002</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>0.21350000000000002</v>
-      </c>
-      <c r="G8" s="10">
-        <f>((C8*0.01*D8*0.01)/F8)*(E8*E8/(B8*B8))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.18176102197158189</v>
       </c>
-      <c r="H8" s="10">
-        <f>G8*(($Q$12/$Q$3)+((1/C8)+(1/D8)+(1/F8))*$Q$10+2*($Q$8/E8)+2*(-$Q$9/B8))</f>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
         <v>1.060089197088898E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f>AVERAGE(G6:G8)</f>
         <v>0.17286260360235009</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>AVERAGE(H6:H8)</f>
         <v>1.0290628646803197E-2</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f>AVERAGE(J5,J8,J11)</f>
         <v>1.0317259640062889E-2</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q8">
@@ -1240,21 +1249,21 @@
         <v>7.34</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29200000000000004</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>0.29200000000000004</v>
-      </c>
-      <c r="G9" s="10">
-        <f>((C9*0.01*D9*0.01)/F9)*(E9*E9/(B9*B9))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.18405663391457766</v>
       </c>
-      <c r="H9" s="10">
-        <f>G9*(($Q$12/$Q$3)+((1/C9)+(1/D9)+(1/F9))*$Q$10+2*($Q$8/E9)+2*(-$Q$9/B9))</f>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
         <v>1.0006791187257159E-2</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>0.02</v>
       </c>
       <c r="V9" s="3"/>
@@ -1276,15 +1285,15 @@
         <v>7.13</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>0.29100000000000004</v>
-      </c>
-      <c r="G10" s="10">
-        <f>((C10*0.01*D10*0.01)/F10)*(E10*E10/(B10*B10))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.1730299448398509</v>
       </c>
-      <c r="H10" s="10">
-        <f>G10*(($Q$12/$Q$3)+((1/C10)+(1/D10)+(1/F10))*$Q$10+2*($Q$8/E10)+2*(-$Q$9/B10))</f>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
         <v>9.6176683053061825E-3</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1317,22 +1326,22 @@
         <v>7.35</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>0.29249999999999998</v>
-      </c>
-      <c r="G11" s="10">
-        <f>((C11*0.01*D11*0.01)/F11)*(E11*E11/(B11*B11))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.18529507819388025</v>
       </c>
-      <c r="H11" s="10">
-        <f>G11*(($Q$12/$Q$3)+((1/C11)+(1/D11)+(1/F11))*$Q$10+2*($Q$8/E11)+2*(-$Q$9/B11))</f>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
         <v>1.0062681686867907E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f>AVERAGE(G9:G11)</f>
         <v>0.1807938856494363</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f>AVERAGE(H6:H8)</f>
         <v>1.0290628646803197E-2</v>
       </c>
@@ -1344,22 +1353,22 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="P12" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>0.01</v>
       </c>
     </row>
@@ -1383,11 +1392,11 @@
         <f>((C13+D13)*0.01)/2</f>
         <v>0.13400000000000001</v>
       </c>
-      <c r="G13" s="10">
-        <f>((C13*0.01*D13*0.01)/F13)*(E13*E13/(B13*B13))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G13" s="9">
+        <f t="shared" ref="G13:G21" si="3">((C13*0.01*D13*0.01)/F13)*(E13*E13/(B13*B13))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>0.52408829980092164</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f>G13*(($Q$12/$Q$3)+((1/C13)+(1/D13)+(1/F13))*$Q$10+2*($Q$8/E13)+2*(-$Q$9/B13))</f>
         <v>2.104682414072527E-2</v>
       </c>
@@ -1409,15 +1418,15 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:F21" si="1">((C14+D14)*0.01)/2</f>
+        <f t="shared" ref="F14:F21" si="4">((C14+D14)*0.01)/2</f>
         <v>0.1305</v>
       </c>
-      <c r="G14" s="10">
-        <f>((C14*0.01*D14*0.01)/F14)*(E14*E14/(B14*B14))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G14" s="9">
+        <f t="shared" si="3"/>
         <v>0.52876207763288985</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" ref="H14:H31" si="2">G14*(($Q$12/$Q$3)+((1/C14)+(1/D14)+(1/F14))*$Q$10+2*($Q$8/E14)+2*(-$Q$9/B14))</f>
+      <c r="H14" s="9">
+        <f t="shared" ref="H14:H31" si="5">G14*(($Q$12/$Q$3)+((1/C14)+(1/D14)+(1/F14))*$Q$10+2*($Q$8/E14)+2*(-$Q$9/B14))</f>
         <v>2.0889975588834282E-2</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1448,26 +1457,26 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.128</v>
       </c>
-      <c r="G15" s="10">
-        <f>((C15*0.01*D15*0.01)/F15)*(E15*E15/(B15*B15))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
         <v>0.53962615026417027</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
+      <c r="H15" s="9">
+        <f t="shared" si="5"/>
         <v>2.0980114137737253E-2</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f>AVERAGE(G13:G15)</f>
         <v>0.53082550923266059</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f>AVERAGE(H13:H15)</f>
         <v>2.097230462243227E-2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>I15-I5</f>
         <v>0.37973578616861059</v>
       </c>
@@ -1489,15 +1498,15 @@
         <v>12.03</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="G16" s="10">
-        <f>((C16*0.01*D16*0.01)/F16)*(E16*E16/(B16*B16))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G16" s="9">
+        <f t="shared" si="3"/>
         <v>0.58845312963645025</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
+      <c r="H16" s="9">
+        <f t="shared" si="5"/>
         <v>2.154500171794187E-2</v>
       </c>
       <c r="K16" s="3"/>
@@ -1519,15 +1528,15 @@
         <v>11.91</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20399999999999999</v>
       </c>
-      <c r="G17" s="10">
-        <f>((C17*0.01*D17*0.01)/F17)*(E17*E17/(B17*B17))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G17" s="9">
+        <f t="shared" si="3"/>
         <v>0.57500781708789594</v>
       </c>
-      <c r="H17" s="10">
-        <f t="shared" si="2"/>
+      <c r="H17" s="9">
+        <f t="shared" si="5"/>
         <v>2.1197394451920499E-2</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -1542,14 +1551,14 @@
       <c r="L17" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f>AVERAGE(I15,I18,I21)</f>
         <v>0.56769066279589653</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="10">
         <f>M17-M7</f>
         <v>0.3994419253572844</v>
       </c>
@@ -1571,40 +1580,40 @@
         <v>11.72</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20149999999999998</v>
       </c>
-      <c r="G18" s="10">
-        <f>((C18*0.01*D18*0.01)/F18)*(E18*E18/(B18*B18))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G18" s="9">
+        <f t="shared" si="3"/>
         <v>0.5460811926639052</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" si="2"/>
+      <c r="H18" s="9">
+        <f t="shared" si="5"/>
         <v>2.0388381126780934E-2</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f>AVERAGE(G16:G18)</f>
         <v>0.5698473797960838</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f>AVERAGE(H16:H18)</f>
         <v>2.1043592432214434E-2</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f>I18-I8</f>
         <v>0.39698477619373373</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f>AVERAGE(J15,J18,J21)</f>
         <v>2.1072586054284331E-2</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <f>M18-M8</f>
         <v>1.0755326414221443E-2</v>
       </c>
@@ -1626,15 +1635,15 @@
         <v>13.9</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.27550000000000002</v>
       </c>
-      <c r="G19" s="10">
-        <f>((C19*0.01*D19*0.01)/F19)*(E19*E19/(B19*B19))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G19" s="9">
+        <f t="shared" si="3"/>
         <v>0.60179873217436441</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="2"/>
+      <c r="H19" s="9">
+        <f t="shared" si="5"/>
         <v>2.1237971064766901E-2</v>
       </c>
     </row>
@@ -1655,15 +1664,15 @@
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.27350000000000002</v>
       </c>
-      <c r="G20" s="10">
-        <f>((C20*0.01*D20*0.01)/F20)*(E20*E20/(B20*B20))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G20" s="9">
+        <f t="shared" si="3"/>
         <v>0.60404393388743749</v>
       </c>
-      <c r="H20" s="10">
-        <f t="shared" si="2"/>
+      <c r="H20" s="9">
+        <f t="shared" si="5"/>
         <v>2.1240623182857795E-2</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1693,42 +1702,42 @@
         <v>14.03</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.27250000000000002</v>
       </c>
-      <c r="G21" s="10">
-        <f>((C21*0.01*D21*0.01)/F21)*(E21*E21/(B21*B21))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G21" s="9">
+        <f t="shared" si="3"/>
         <v>0.60135463201503436</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="2"/>
+      <c r="H21" s="9">
+        <f t="shared" si="5"/>
         <v>2.1126989076994188E-2</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f>AVERAGE(G19:G21)</f>
         <v>0.60239909935894531</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f>AVERAGE(H19:H21)</f>
         <v>2.1201861108206294E-2</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f>I21-I11</f>
         <v>0.42160521370950899</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="6"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1751,12 +1760,12 @@
         <f>((C23+D23)*0.01)/2</f>
         <v>0.123</v>
       </c>
-      <c r="G23" s="10">
-        <f>((C23*0.01*D23*0.01)/F23)*(E23*E23/(B23*B23))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G23" s="9">
+        <f t="shared" ref="G23:G31" si="6">((C23*0.01*D23*0.01)/F23)*(E23*E23/(B23*B23))*(($Q$3*$Q$4)/(8*PI()))</f>
         <v>1.3982519935726119</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" si="2"/>
+      <c r="H23" s="9">
+        <f t="shared" si="5"/>
         <v>3.7533229175757694E-2</v>
       </c>
       <c r="P23" s="2"/>
@@ -1779,15 +1788,15 @@
         <v>15.97</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ref="F24:F31" si="3">((C24+D24)*0.01)/2</f>
+        <f t="shared" ref="F24:F31" si="7">((C24+D24)*0.01)/2</f>
         <v>0.1235</v>
       </c>
-      <c r="G24" s="10">
-        <f>((C24*0.01*D24*0.01)/F24)*(E24*E24/(B24*B24))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G24" s="9">
+        <f t="shared" si="6"/>
         <v>1.3715257816954105</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="2"/>
+      <c r="H24" s="9">
+        <f t="shared" si="5"/>
         <v>3.7118762295559986E-2</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -1817,26 +1826,26 @@
         <v>15.63</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.12399999999999999</v>
       </c>
-      <c r="G25" s="10">
-        <f>((C25*0.01*D25*0.01)/F25)*(E25*E25/(B25*B25))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G25" s="9">
+        <f t="shared" si="6"/>
         <v>1.3242151910535662</v>
       </c>
-      <c r="H25" s="10">
-        <f t="shared" si="2"/>
+      <c r="H25" s="9">
+        <f t="shared" si="5"/>
         <v>3.6334342553660193E-2</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f>AVERAGE(G23:G25)</f>
         <v>1.3646643221071963</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>AVERAGE(H23:H25)</f>
         <v>3.6995444674992627E-2</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f>I25-I5</f>
         <v>1.2135745990431464</v>
       </c>
@@ -1858,15 +1867,15 @@
         <v>19.91</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19750000000000001</v>
       </c>
-      <c r="G26" s="10">
-        <f>((C26*0.01*D26*0.01)/F26)*(E26*E26/(B26*B26))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G26" s="9">
+        <f t="shared" si="6"/>
         <v>1.543633774880641</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="2"/>
+      <c r="H26" s="9">
+        <f t="shared" si="5"/>
         <v>4.153785303931435E-2</v>
       </c>
       <c r="P26" s="2"/>
@@ -1889,15 +1898,15 @@
         <v>19.34</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19700000000000001</v>
       </c>
-      <c r="G27" s="10">
-        <f>((C27*0.01*D27*0.01)/F27)*(E27*E27/(B27*B27))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G27" s="9">
+        <f t="shared" si="6"/>
         <v>1.4496295937393886</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="2"/>
+      <c r="H27" s="9">
+        <f t="shared" si="5"/>
         <v>3.9671439699711007E-2</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -1908,6 +1917,20 @@
       </c>
       <c r="K27" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="9">
+        <f>AVERAGE(I25,I28,I31)</f>
+        <v>1.4722634578889959</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="10">
+        <f>M27-M7</f>
+        <v>1.3040147204503838</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1927,28 +1950,42 @@
         <v>19.66</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19700000000000001</v>
       </c>
-      <c r="G28" s="10">
-        <f>((C28*0.01*D28*0.01)/F28)*(E28*E28/(B28*B28))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G28" s="9">
+        <f t="shared" si="6"/>
         <v>1.4979976563779922</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="2"/>
+      <c r="H28" s="9">
+        <f t="shared" si="5"/>
         <v>4.0616891172838697E-2</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f>AVERAGE(G26:G28)</f>
         <v>1.4970870083326737</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <f>AVERAGE(H26:H28)</f>
         <v>4.0608727970621351E-2</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <f>I28-I8</f>
         <v>1.3242244047303235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="9">
+        <f>AVERAGE(J25,J28,J31)</f>
+        <v>3.9840367676074649E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="9">
+        <f>M28-M8</f>
+        <v>2.9523108036011762E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1968,18 +2005,18 @@
         <v>22.9</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="G29" s="10">
-        <f>((C29*0.01*D29*0.01)/F29)*(E29*E29/(B29*B29))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G29" s="9">
+        <f t="shared" si="6"/>
         <v>1.5646735736485082</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="2"/>
+      <c r="H29" s="9">
+        <f t="shared" si="5"/>
         <v>4.2089205477154612E-2</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
@@ -2000,15 +2037,15 @@
         <v>22.81</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.27</v>
       </c>
-      <c r="G30" s="10">
-        <f>((C30*0.01*D30*0.01)/F30)*(E30*E30/(B30*B30))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G30" s="9">
+        <f t="shared" si="6"/>
         <v>1.5631030880400381</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="2"/>
+      <c r="H30" s="9">
+        <f t="shared" si="5"/>
         <v>4.2105359420598364E-2</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -2020,6 +2057,9 @@
       <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2038,54 +2078,96 @@
         <v>22.66</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.26950000000000002</v>
       </c>
-      <c r="G31" s="10">
-        <f>((C31*0.01*D31*0.01)/F31)*(E31*E31/(B31*B31))*(($Q$3*$Q$4)/(8*PI()))</f>
+      <c r="G31" s="9">
+        <f t="shared" si="6"/>
         <v>1.537340467992808</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="2"/>
+      <c r="H31" s="9">
+        <f t="shared" si="5"/>
         <v>4.1556226250076891E-2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f>AVERAGE(G29:G31)</f>
         <v>1.5550390432271179</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <f>AVERAGE(H29:H31)</f>
         <v>4.1916930382609963E-2</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <f>I31-I11</f>
         <v>1.3742451575776817</v>
       </c>
-    </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="N31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G36" s="10"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="B36">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G36" s="9"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>2*Q5*A36*A36</f>
+        <v>0.13580479999999998</v>
+      </c>
+      <c r="B38">
+        <f>2*Q5*B36*B36</f>
+        <v>0.5035949999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
